--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coswald\Desktop\GitHub Repos\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574841A-C1AF-492F-A6D6-D65AC88292F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A993E-719D-4E0D-B415-354E45BC0C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="inbound_missiles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>LP_lat_deg</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>missile5</t>
+  </si>
+  <si>
+    <t>unique name for the missile folder</t>
+  </si>
+  <si>
+    <t>unique or shared name for the KMZ file</t>
   </si>
 </sst>
 </file>
@@ -613,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7595EE20-1C56-44D5-B6A6-6EADC4CCC3C7}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -680,7 +684,9 @@
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
@@ -709,7 +715,9 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coswald\Desktop\GitHub Repos\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A993E-719D-4E0D-B415-354E45BC0C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52A4D8-D1F1-4737-9A8A-27D7CC6B2D2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="inbound_missiles" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coswald\Desktop\GitHub Repos\missile-intercepts\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitHub\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52A4D8-D1F1-4737-9A8A-27D7CC6B2D2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8F7DF-D21E-4695-900E-31281918DFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
+    <workbookView xWindow="35550" yWindow="-16230" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="ballistic" sheetId="1" r:id="rId1"/>
+    <sheet name="interceptor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>LP_lat_deg</t>
   </si>
@@ -163,6 +175,36 @@
   </si>
   <si>
     <t>unique or shared name for the KMZ file</t>
+  </si>
+  <si>
+    <t>intercept_missile_name</t>
+  </si>
+  <si>
+    <t>unique name of ballistic missile to intercept</t>
+  </si>
+  <si>
+    <t>interceptor1</t>
+  </si>
+  <si>
+    <t>interceptor5</t>
+  </si>
+  <si>
+    <t>interceptor4</t>
+  </si>
+  <si>
+    <t>interceptor3</t>
+  </si>
+  <si>
+    <t>interceptor2</t>
+  </si>
+  <si>
+    <t>interceptor_name</t>
+  </si>
+  <si>
+    <t>distance to intercept missile from missile target (km)</t>
+  </si>
+  <si>
+    <t>intercept_distance_from_target_km</t>
   </si>
 </sst>
 </file>
@@ -262,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -273,7 +315,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -290,7 +331,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -321,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -467,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,24 +659,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7595EE20-1C56-44D5-B6A6-6EADC4CCC3C7}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="15.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="str">
@@ -680,7 +722,7 @@
         <v>Simulation10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -711,7 +753,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -742,8 +784,8 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -752,29 +794,29 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44042</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>44042</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>44042</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>44042</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>44042</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -783,20 +825,558 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.16701388888888891</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.16718750000000002</v>
       </c>
+      <c r="G5" s="6">
+        <v>0.16770833333333335</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>39.516824999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>39.485511000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>39.504075999999998</v>
+      </c>
+      <c r="G6" s="7">
+        <v>39.542740999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>39.521768999999999</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-104.95567</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-104.884624</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-104.90361900000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-104.97689699999999</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-105.01303799999999</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="E8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="F8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>500</v>
+      </c>
+      <c r="E16" s="9">
+        <v>500</v>
+      </c>
+      <c r="F16" s="9">
+        <v>500</v>
+      </c>
+      <c r="G16" s="9">
+        <v>500</v>
+      </c>
+      <c r="H16" s="9">
+        <v>500</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B104D1-80A3-4231-9FB4-C433ADF88AD9}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="15.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"Simulation"&amp;(COLUMN(D$1)-COUNTA($A$1:$C$1))</f>
+        <v>Simulation1</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f t="shared" ref="E1:M1" si="0">"Simulation"&amp;(COLUMN(E$1)-COUNTA($A$1:$C$1))</f>
+        <v>Simulation2</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation3</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation4</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation5</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation6</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation7</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation8</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation9</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>40.862397000000001</v>
+      </c>
       <c r="G5" s="7">
-        <v>0.16770833333333335</v>
+        <v>40.862397000000001</v>
       </c>
       <c r="H5" s="7">
-        <v>0.16805555555555554</v>
+        <v>40.862397000000001</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -804,61 +1384,61 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13">
-        <v>39.516824999999997</v>
-      </c>
-      <c r="E6" s="13">
-        <v>39.485511000000002</v>
-      </c>
-      <c r="F6" s="13">
-        <v>39.504075999999998</v>
-      </c>
-      <c r="G6" s="8">
-        <v>39.542740999999999</v>
-      </c>
-      <c r="H6" s="8">
-        <v>39.521768999999999</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-105.025902</v>
+      </c>
+      <c r="H6" s="7">
+        <v>-105.025902</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13">
-        <v>-104.95567</v>
-      </c>
-      <c r="E7" s="13">
-        <v>-104.884624</v>
-      </c>
-      <c r="F7" s="13">
-        <v>-104.90361900000001</v>
+      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
       </c>
       <c r="G7" s="8">
-        <v>-104.97689699999999</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8">
-        <v>-105.01303799999999</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -866,30 +1446,30 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="E8" s="13">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="F8" s="13">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="G8" s="13">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="H8" s="13">
-        <v>40.862397000000001</v>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -897,30 +1477,30 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13">
-        <v>-105.025902</v>
-      </c>
-      <c r="E9" s="13">
-        <v>-105.025902</v>
-      </c>
-      <c r="F9" s="13">
-        <v>-105.025902</v>
-      </c>
-      <c r="G9" s="13">
-        <v>-105.025902</v>
-      </c>
-      <c r="H9" s="13">
-        <v>-105.025902</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -928,61 +1508,61 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F11" s="9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G11" s="9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H11" s="9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -990,161 +1570,6 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9">
-        <v>10</v>
-      </c>
-      <c r="F13" s="9">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="9">
-        <v>10</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11">
-        <v>500</v>
-      </c>
-      <c r="E16" s="11">
-        <v>500</v>
-      </c>
-      <c r="F16" s="11">
-        <v>500</v>
-      </c>
-      <c r="G16" s="11">
-        <v>500</v>
-      </c>
-      <c r="H16" s="11">
-        <v>500</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitHub\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8F7DF-D21E-4695-900E-31281918DFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01EEA5-13E8-4E82-8AE6-03FDCF08D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35550" yWindow="-16230" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
+    <workbookView xWindow="21135" yWindow="-16350" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="ballistic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>LP_lat_deg</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B104D1-80A3-4231-9FB4-C433ADF88AD9}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1426,19 +1426,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1479,28 +1479,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1510,28 +1510,28 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8">
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1541,34 +1541,127 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D14" s="9">
         <v>500</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E14" s="9">
         <v>500</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F14" s="9">
         <v>500</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G14" s="9">
         <v>500</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H14" s="9">
         <v>500</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitHub\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01EEA5-13E8-4E82-8AE6-03FDCF08D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9567A2-4C6E-466F-85BE-2BC979862A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21135" yWindow="-16350" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="D8" sqref="D8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1364,19 +1364,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="11">
-        <v>40.862397000000001</v>
+        <v>40.86</v>
       </c>
       <c r="E5" s="11">
-        <v>40.862397000000001</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="F5" s="11">
-        <v>40.862397000000001</v>
+        <v>40.86</v>
       </c>
       <c r="G5" s="7">
-        <v>40.862397000000001</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="H5" s="7">
-        <v>40.862397000000001</v>
+        <v>40.86</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1395,19 +1395,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="11">
-        <v>-105.025902</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="E6" s="11">
-        <v>-105.025902</v>
+        <v>-105.02</v>
       </c>
       <c r="F6" s="11">
-        <v>-105.025902</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="G6" s="7">
-        <v>-105.025902</v>
+        <v>-105.02</v>
       </c>
       <c r="H6" s="7">
-        <v>-105.025902</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitHub\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9567A2-4C6E-466F-85BE-2BC979862A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD0450-2025-45F9-9488-2B1DBA564376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21135" yWindow="-16350" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="ballistic" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7595EE20-1C56-44D5-B6A6-6EADC4CCC3C7}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B104D1-80A3-4231-9FB4-C433ADF88AD9}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitHub\missile-intercepts\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD0450-2025-45F9-9488-2B1DBA564376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3546F-5DD5-45C2-811F-2904AB00FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
+    <workbookView xWindow="-7665" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{7C927F14-1512-4476-AEF4-3D0269B8EA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="ballistic" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,544 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7595EE20-1C56-44D5-B6A6-6EADC4CCC3C7}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="15.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"Simulation"&amp;(COLUMN(D$1)-COUNTA($A$1:$C$1))</f>
+        <v>Simulation1</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f t="shared" ref="E1:M1" si="0">"Simulation"&amp;(COLUMN(E$1)-COUNTA($A$1:$C$1))</f>
+        <v>Simulation2</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation3</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation4</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation5</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation6</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation7</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation8</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation9</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44042</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44042</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44042</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44042</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44042</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.16701388888888891</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.16718750000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.16770833333333335</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>39.516824999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>39.485511000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>39.504075999999998</v>
+      </c>
+      <c r="G6" s="7">
+        <v>39.542740999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>39.521768999999999</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-104.95567</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-104.884624</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-104.90361900000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-104.97689699999999</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-105.01303799999999</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="E8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="F8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <v>40.862397000000001</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-105.025902</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>500</v>
+      </c>
+      <c r="E16" s="9">
+        <v>500</v>
+      </c>
+      <c r="F16" s="9">
+        <v>500</v>
+      </c>
+      <c r="G16" s="9">
+        <v>500</v>
+      </c>
+      <c r="H16" s="9">
+        <v>500</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B104D1-80A3-4231-9FB4-C433ADF88AD9}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -724,7 +1260,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -733,19 +1269,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -786,90 +1322,90 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44042</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44042</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44042</v>
-      </c>
-      <c r="G4" s="5">
-        <v>44042</v>
-      </c>
-      <c r="H4" s="5">
-        <v>44042</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.16701388888888891</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.16718750000000002</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.16770833333333335</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.16805555555555554</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>40.86</v>
+      </c>
+      <c r="E5" s="11">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="F5" s="11">
+        <v>40.86</v>
+      </c>
+      <c r="G5" s="7">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="H5" s="7">
+        <v>40.86</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11">
-        <v>39.516824999999997</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="E6" s="11">
-        <v>39.485511000000002</v>
+        <v>-105.02</v>
       </c>
       <c r="F6" s="11">
-        <v>39.504075999999998</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="G6" s="7">
-        <v>39.542740999999999</v>
+        <v>-105.02</v>
       </c>
       <c r="H6" s="7">
-        <v>39.521768999999999</v>
+        <v>-105.02500000000001</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -879,121 +1415,121 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
-        <v>-104.95567</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-104.884624</v>
-      </c>
-      <c r="F7" s="11">
-        <v>-104.90361900000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>-104.97689699999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>-105.01303799999999</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="E8" s="11">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="F8" s="11">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="G8" s="11">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="H8" s="11">
-        <v>40.862397000000001</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11">
-        <v>-105.025902</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-105.025902</v>
-      </c>
-      <c r="F9" s="11">
-        <v>-105.025902</v>
-      </c>
-      <c r="G9" s="11">
-        <v>-105.025902</v>
-      </c>
-      <c r="H9" s="11">
-        <v>-105.025902</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1003,28 +1539,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1034,28 +1570,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1065,28 +1601,28 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8">
-        <v>10</v>
-      </c>
-      <c r="H13" s="8">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1096,544 +1632,6 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9">
-        <v>500</v>
-      </c>
-      <c r="E16" s="9">
-        <v>500</v>
-      </c>
-      <c r="F16" s="9">
-        <v>500</v>
-      </c>
-      <c r="G16" s="9">
-        <v>500</v>
-      </c>
-      <c r="H16" s="9">
-        <v>500</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B104D1-80A3-4231-9FB4-C433ADF88AD9}">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="15.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <f>"Simulation"&amp;(COLUMN(D$1)-COUNTA($A$1:$C$1))</f>
-        <v>Simulation1</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <f t="shared" ref="E1:M1" si="0">"Simulation"&amp;(COLUMN(E$1)-COUNTA($A$1:$C$1))</f>
-        <v>Simulation2</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation4</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation5</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation6</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation7</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation8</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation9</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Simulation10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11">
-        <v>40.86</v>
-      </c>
-      <c r="E5" s="11">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="F5" s="11">
-        <v>40.86</v>
-      </c>
-      <c r="G5" s="7">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="H5" s="7">
-        <v>40.86</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11">
-        <v>-105.02500000000001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-105.02</v>
-      </c>
-      <c r="F6" s="11">
-        <v>-105.02500000000001</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-105.02</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-105.02500000000001</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8">
-        <v>20</v>
-      </c>
-      <c r="G10" s="8">
-        <v>20</v>
-      </c>
-      <c r="H10" s="8">
-        <v>20</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8">
-        <v>20</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1643,19 +1641,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E14" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F14" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G14" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H14" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
